--- a/요구사항 및 모델링.xlsx
+++ b/요구사항 및 모델링.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\airbnb_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFADD31-C3B8-48EF-AF97-BD5D507BA6DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834A4950-01AE-4AEE-90AE-4F978681691F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11415" yWindow="4695" windowWidth="43200" windowHeight="23535" activeTab="1" xr2:uid="{A8B3F9D1-4DEB-4695-96A0-D08F72F2EAF9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{A8B3F9D1-4DEB-4695-96A0-D08F72F2EAF9}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
   <si>
     <t>ROOM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,6 +202,30 @@
   </si>
   <si>
     <t>MESSAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOMVIEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rsvStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIEWPAGE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -214,6 +238,7 @@
 - 확정 시 고객에게 알림 메시지가 전송된다.
 - 고객이 예약을 취소할 수 있다.
 - 사용 후 고객이 후기를 등록/수정/삭제할 수 있다.
+- 등록된 모든 방의 상태 및 예약 가능 여부 등을 종합적으로 확인할 수 있는 페이지가 제공된다. (CQRS)
 비기능적 요구사항
 - 결제가 되지 않은 주문건은 아예 거래가 성립되지 않아야 한다. (Sync 호출)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,17 +357,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>35609</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>93195</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>388847</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>17686</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
+        <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8773AA8-439E-4540-BB64-1B7DDECA6A35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{386B629A-44DE-4088-8D10-EBDE6DDA6F2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -359,7 +384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="19923809" cy="16438095"/>
+          <a:ext cx="13419047" cy="10914286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -670,18 +695,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBDB770-E9FF-46FB-9056-7AE153882A52}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="85" customWidth="1"/>
+    <col min="1" max="1" width="92" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="198" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -694,7 +719,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF6E21E-9C86-4E13-BC8E-7EFF4CBB52F1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -706,10 +733,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970B29E1-104C-4854-8062-AD0C38235FCC}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -964,69 +991,210 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="4" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="5" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="D26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="2"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C30" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/요구사항 및 모델링.xlsx
+++ b/요구사항 및 모델링.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\airbnb_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834A4950-01AE-4AEE-90AE-4F978681691F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A3C587-BC49-48AB-83BA-94CB60B2326D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{A8B3F9D1-4DEB-4695-96A0-D08F72F2EAF9}"/>
+    <workbookView xWindow="4635" yWindow="2070" windowWidth="22485" windowHeight="11610" activeTab="2" xr2:uid="{A8B3F9D1-4DEB-4695-96A0-D08F72F2EAF9}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="67">
   <si>
     <t>ROOM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +241,78 @@
 - 등록된 모든 방의 상태 및 예약 가능 여부 등을 종합적으로 확인할 수 있는 페이지가 제공된다. (CQRS)
 비기능적 요구사항
 - 결제가 되지 않은 주문건은 아예 거래가 성립되지 않아야 한다. (Sync 호출)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENTCAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동차ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동차이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register(자동차등록), modify(자동차수정), confirm(예약완료), cancel(취소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동차Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>렌터카도 같이 예약하는 경우 예약 시 들어옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>렌터카상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roomId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약된 경우 예약된 방Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,7 +337,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +347,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,7 +386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -329,6 +407,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,7 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBDB770-E9FF-46FB-9056-7AE153882A52}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -733,10 +814,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970B29E1-104C-4854-8062-AD0C38235FCC}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -921,80 +1002,82 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
+      <c r="B16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="4" t="s">
-        <v>33</v>
+      <c r="F16" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="5" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>26</v>
@@ -1005,144 +1088,142 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="4" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="5" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="D28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="5" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="2"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>26</v>
@@ -1153,26 +1234,26 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>26</v>
@@ -1183,17 +1264,176 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C45" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
